--- a/data/typenames.xlsx
+++ b/data/typenames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="116">
   <si>
     <t>ΤΥΠΟΙ</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Είσοδος 2-φύλλα</t>
   </si>
   <si>
-    <t>Εισοδος 1-φύλλο Δεξιά Φεγγίτης</t>
-  </si>
-  <si>
     <t>Εισοδος 1-φύλλο Αριστερά Φεγγίτης</t>
   </si>
   <si>
@@ -221,15 +218,6 @@
     <t>ENT-2P</t>
   </si>
   <si>
-    <t>ENT-1P-R-FGG</t>
-  </si>
-  <si>
-    <t>ENT-1P-L-FGG</t>
-  </si>
-  <si>
-    <t>ENT-2P-FGG</t>
-  </si>
-  <si>
     <t>ENT-1P-R-FIX-L</t>
   </si>
   <si>
@@ -284,61 +272,100 @@
     <t>Class</t>
   </si>
   <si>
-    <t>1P</t>
-  </si>
-  <si>
-    <t>2P</t>
-  </si>
-  <si>
-    <t>2P+1U</t>
-  </si>
-  <si>
-    <t>2P+2U</t>
-  </si>
-  <si>
-    <t>3P+1U</t>
-  </si>
-  <si>
-    <t>3P+3U</t>
-  </si>
-  <si>
-    <t>3P</t>
-  </si>
-  <si>
-    <t>4P</t>
-  </si>
-  <si>
-    <t>1P+1U</t>
-  </si>
-  <si>
-    <t>FIX+1P</t>
-  </si>
-  <si>
-    <t>1P+FIX</t>
-  </si>
-  <si>
-    <t>1P=ΜΟΝΟΦΥΛΛΟ</t>
-  </si>
-  <si>
-    <t>2P=ΔΙΦΥΛΛΟ</t>
-  </si>
-  <si>
-    <t>3P=3ΦΥΛΛΟ</t>
-  </si>
-  <si>
-    <t>+1U= ΜΕ 1 ΦΥΛΛΟ ΠΑΝΩ ΦΕΓΓΙΤΗ</t>
-  </si>
-  <si>
-    <t>+2U= ΜΕ 2 ΦΥΛΛΑ ΠΑΝΩ ΦΕΓΓΙΤΗ</t>
-  </si>
-  <si>
-    <t>+3U= ΜΕ 3 ΦΥΛΛΑ ΠΑΝΩ ΦΕΓΓΙΤΗ</t>
-  </si>
-  <si>
-    <t>FIX+ = ΑΡΙΣΤΕΡΟ FIX (σύνθεση με κεντρική είσοδο)</t>
-  </si>
-  <si>
-    <t>+FIX = ΔΕΞΙ FIX (σύνθεση με κεντρική είσοδο)</t>
+    <t>1=ΜΟΝΟΦΥΛΛΟ</t>
+  </si>
+  <si>
+    <t>2=ΔΙΦΥΛΛΟ</t>
+  </si>
+  <si>
+    <t>3=ΤΡΙΦΥΛΛΟ</t>
+  </si>
+  <si>
+    <t>4= ΜΟΝΟΦΥΛΛΟ ΜΕ 1 ΦΥΛΛΟ ΠΑΝΩ ΦΕΓΓΙΤΗ</t>
+  </si>
+  <si>
+    <t>5= ΜΟΝΟΦΥΛΛΟ ΜΕ 2 ΦΥΛΛΑ ΠΑΝΩ ΦΕΓΓΙΤΗ</t>
+  </si>
+  <si>
+    <t>6= ΔΙΦΥΛΛΟ ΜΕ 1 ΦΥΛΛΟ ΠΑΝΩ ΦΕΓΓΙΤΗ</t>
+  </si>
+  <si>
+    <t>7=ΔΙΦΥΛΛΟ ΜΕ 2 ΦΥΛΛΑ ΠΑΝΩ ΦΕΓΓΙΤΗ</t>
+  </si>
+  <si>
+    <t>8=ΤΡΙΦΥΛΛΟ ΜΕ 1 ΦΥΛΛΟ ΠΑΝΩ ΦΕΓΓΙΤΗ</t>
+  </si>
+  <si>
+    <t>9=ΤΡΙΦΥΛΛΟ ΜΕ 3 ΦΥΛΛΑ ΠΑΝΩ ΦΕΓΓΙΤΗ</t>
+  </si>
+  <si>
+    <t>11=FIX+ΚΕΝΤΡΙΚΗ ΕΙΣΟΔΟΣ</t>
+  </si>
+  <si>
+    <t>12=ΚΕΝΤΡΙΚΗ ΕΙΣΟΔΟΣ+FIX</t>
+  </si>
+  <si>
+    <t>14=FIX+ΚΕΝΤΡΙΚΗ ΕΙΣΟΔΟΣ+FIX - ΦΕΓΓΙΤΗΣ</t>
+  </si>
+  <si>
+    <t>13=FIX+ΚΕΝΤΡΙΚΗ ΕΙΣΟΔΟΣ+FIX</t>
+  </si>
+  <si>
+    <t>15=ΤΕΤΡΑΦΥΛΛΟ</t>
+  </si>
+  <si>
+    <t>Fix + Εισοδος  1-φύλλο Δεξιά + Fix</t>
+  </si>
+  <si>
+    <t>Fix + Εισοδος  1-φύλλο Αριστερά + Fix</t>
+  </si>
+  <si>
+    <t>Fix + Εισοδος  2-φύλλα + Fix</t>
+  </si>
+  <si>
+    <t>ENT-2P-2FIX</t>
+  </si>
+  <si>
+    <t>ENT-1P-R-2FIX</t>
+  </si>
+  <si>
+    <t>ENT-1P-L-2FIX</t>
+  </si>
+  <si>
+    <t>MAA-L+Φεγγίτης-FIX</t>
+  </si>
+  <si>
+    <t>MAA-R+Φεγγίτης-FIX</t>
+  </si>
+  <si>
+    <t>FIX+Φεγγίτης-FIX</t>
+  </si>
+  <si>
+    <t>ENT-1P-R+FGG</t>
+  </si>
+  <si>
+    <t>ENT-1P-L+FGG</t>
+  </si>
+  <si>
+    <t>ENT-2P+FGG</t>
+  </si>
+  <si>
+    <t>ENT-1P-R-2FIX+FGG</t>
+  </si>
+  <si>
+    <t>ENT-1P-L-2FIX+FGG</t>
+  </si>
+  <si>
+    <t>ENT-2P-2FIX+FGG</t>
+  </si>
+  <si>
+    <t>SA-L+Fgg-FIX</t>
+  </si>
+  <si>
+    <t>SA-R+Fgg-FIX</t>
+  </si>
+  <si>
+    <t>Εισοδος 1-φύλλο Δεξιά + Φεγγίτης</t>
   </si>
 </sst>
 </file>
@@ -407,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -437,6 +464,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +781,7 @@
     <col min="1" max="1" width="42.42578125" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -759,10 +789,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -775,11 +805,11 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>88</v>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -787,13 +817,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>88</v>
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -801,493 +831,592 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" t="s">
-        <v>101</v>
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
       <c r="E6" s="12" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>90</v>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>89</v>
+      <c r="B21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>94</v>
+        <v>42</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" t="s">
-        <v>94</v>
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" t="s">
-        <v>94</v>
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" t="s">
-        <v>94</v>
+        <v>51</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" t="s">
-        <v>94</v>
+        <v>52</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>89</v>
+        <v>53</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="s">
-        <v>89</v>
+        <v>54</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" t="s">
-        <v>89</v>
+        <v>55</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" t="s">
-        <v>89</v>
+        <v>56</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" t="s">
-        <v>95</v>
+        <v>57</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" t="s">
-        <v>95</v>
+        <v>58</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" t="s">
-        <v>96</v>
+      <c r="C37">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" t="s">
-        <v>96</v>
+        <v>64</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" t="s">
-        <v>90</v>
+        <v>65</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" t="s">
-        <v>97</v>
+        <v>107</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" t="s">
-        <v>97</v>
+        <v>108</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" t="s">
-        <v>97</v>
+        <v>109</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" t="s">
-        <v>98</v>
+        <v>32</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43">
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" t="s">
-        <v>98</v>
+        <v>33</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44">
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/typenames.xlsx
+++ b/data/typenames.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="118">
   <si>
     <t>ΤΥΠΟΙ</t>
   </si>
@@ -366,6 +366,12 @@
   </si>
   <si>
     <t>Εισοδος 1-φύλλο Δεξιά + Φεγγίτης</t>
+  </si>
+  <si>
+    <t>Excel Width</t>
+  </si>
+  <si>
+    <t>Excel Height</t>
   </si>
 </sst>
 </file>
@@ -413,7 +419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -430,11 +436,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -467,6 +513,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -770,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,10 +831,12 @@
     <col min="1" max="1" width="42.42578125" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -794,11 +846,17 @@
       <c r="C1" s="8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -808,11 +866,11 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -822,11 +880,11 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -836,11 +894,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>106</v>
       </c>
@@ -850,11 +908,11 @@
       <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>104</v>
       </c>
@@ -864,11 +922,11 @@
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="F7" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>105</v>
       </c>
@@ -878,11 +936,11 @@
       <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
@@ -892,11 +950,11 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="F9" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -906,11 +964,11 @@
       <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -920,11 +978,11 @@
       <c r="C11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="F11" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
@@ -934,11 +992,11 @@
       <c r="C12" s="2">
         <v>2</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -948,11 +1006,13 @@
       <c r="C13" s="2">
         <v>2</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -962,11 +1022,13 @@
       <c r="C14" s="2">
         <v>2</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -976,11 +1038,13 @@
       <c r="C15" s="2">
         <v>2</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>79</v>
       </c>
@@ -990,11 +1054,13 @@
       <c r="C16" s="2">
         <v>6</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="D16" s="17"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>78</v>
       </c>
@@ -1004,8 +1070,10 @@
       <c r="C17" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="17"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>77</v>
       </c>
@@ -1016,7 +1084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>76</v>
       </c>
@@ -1027,7 +1095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>81</v>
       </c>
@@ -1038,7 +1106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>11</v>
       </c>
@@ -1049,7 +1117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>12</v>
       </c>
@@ -1060,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>13</v>
       </c>
@@ -1071,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>14</v>
       </c>
@@ -1082,7 +1150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>15</v>
       </c>
@@ -1093,7 +1161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>16</v>
       </c>
@@ -1104,7 +1172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>17</v>
       </c>
@@ -1115,7 +1183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>18</v>
       </c>
@@ -1126,7 +1194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>19</v>
       </c>
@@ -1137,7 +1205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>20</v>
       </c>
@@ -1148,7 +1216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>21</v>
       </c>
@@ -1159,7 +1227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>22</v>
       </c>

--- a/data/typenames.xlsx
+++ b/data/typenames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
   <si>
     <t>ΤΥΠΟΙ</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Είσοδος 2-φύλλα</t>
   </si>
   <si>
-    <t>Εισοδος 1-φύλλο Αριστερά Φεγγίτης</t>
-  </si>
-  <si>
     <t>Είσοδος 2-φύλλα Φεγγίτης</t>
   </si>
   <si>
@@ -368,10 +365,31 @@
     <t>Εισοδος 1-φύλλο Δεξιά + Φεγγίτης</t>
   </si>
   <si>
-    <t>Excel Width</t>
-  </si>
-  <si>
-    <t>Excel Height</t>
+    <t>Αριθμός Φϋλλων</t>
+  </si>
+  <si>
+    <t>Φεγγίτης Πάνω</t>
+  </si>
+  <si>
+    <t>Φεγγίτης Κάτω</t>
+  </si>
+  <si>
+    <t>Εισοδος 1-φύλλο Αριστερά + Φεγγίτης</t>
+  </si>
+  <si>
+    <t>Fix + Εισοδος  1-φύλλο Αριστερά + Fix  + Φεγγίτης</t>
+  </si>
+  <si>
+    <t>Fix + Εισοδος  2-φύλλα + Fix  + Φεγγίτης</t>
+  </si>
+  <si>
+    <t>Fix + Εισοδος  1-φύλλο Δεξιά + Fix  + Φεγγίτης</t>
+  </si>
+  <si>
+    <t>FIX (ΕΙΣΟΔΟΥ) ΑΡΙΣΤΕΡΑ</t>
+  </si>
+  <si>
+    <t>FIX (ΕΙΣΟΔΟΥ) ΔΕΞΙΑ</t>
   </si>
 </sst>
 </file>
@@ -419,7 +437,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -476,11 +494,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -513,10 +555,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,663 +888,1190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="45.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11" style="23" customWidth="1"/>
+    <col min="4" max="4" width="18" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15" style="19" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="23">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="23">
+        <v>4</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="19">
+        <v>1</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="23">
         <v>4</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="23">
         <v>4</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C9" s="23">
+        <v>2</v>
+      </c>
+      <c r="D9" s="16">
+        <v>2</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="C10" s="23">
+        <v>2</v>
+      </c>
+      <c r="D10" s="16">
+        <v>2</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C11" s="23">
+        <v>2</v>
+      </c>
+      <c r="D11" s="16">
+        <v>2</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="C12" s="23">
+        <v>2</v>
+      </c>
+      <c r="D12" s="16">
+        <v>2</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="C13" s="23">
+        <v>2</v>
+      </c>
+      <c r="D13" s="16">
+        <v>2</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0</v>
+      </c>
+      <c r="H13" s="21">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="C14" s="23">
+        <v>2</v>
+      </c>
+      <c r="D14" s="16">
+        <v>2</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19">
+        <v>0</v>
+      </c>
+      <c r="H14" s="21">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C15" s="23">
+        <v>2</v>
+      </c>
+      <c r="D15" s="16">
+        <v>2</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0</v>
+      </c>
+      <c r="F15" s="21">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="21">
+        <v>0</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="23">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="19">
+        <v>1</v>
+      </c>
+      <c r="F16" s="21">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="21">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="23">
+        <v>6</v>
+      </c>
+      <c r="D17" s="16">
+        <v>2</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17" s="21">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="H17" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="23">
+        <v>7</v>
+      </c>
+      <c r="D18" s="16">
+        <v>2</v>
+      </c>
+      <c r="E18" s="19">
+        <v>1</v>
+      </c>
+      <c r="F18" s="21">
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0</v>
+      </c>
+      <c r="H18" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="2">
-        <v>6</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="2">
-        <v>6</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="23">
+        <v>8</v>
+      </c>
+      <c r="D19" s="16">
+        <v>3</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="21">
+        <v>0</v>
+      </c>
+      <c r="G19" s="19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="C20" s="23">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D20" s="16">
+        <v>3</v>
+      </c>
+      <c r="E20" s="19">
+        <v>1</v>
+      </c>
+      <c r="F20" s="21">
+        <v>0</v>
+      </c>
+      <c r="G20" s="19">
+        <v>0</v>
+      </c>
+      <c r="H20" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C21" s="23">
+        <v>2</v>
+      </c>
+      <c r="D21" s="16">
+        <v>2</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="19">
+        <v>0</v>
+      </c>
+      <c r="H21" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="C22" s="23">
+        <v>1</v>
+      </c>
+      <c r="D22" s="16">
+        <v>1</v>
+      </c>
+      <c r="E22" s="19">
+        <v>0</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0</v>
+      </c>
+      <c r="G22" s="19">
+        <v>0</v>
+      </c>
+      <c r="H22" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="C23" s="23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="16">
+        <v>1</v>
+      </c>
+      <c r="E23" s="19">
+        <v>0</v>
+      </c>
+      <c r="F23" s="21">
+        <v>0</v>
+      </c>
+      <c r="G23" s="19">
+        <v>0</v>
+      </c>
+      <c r="H23" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="C24" s="23">
+        <v>2</v>
+      </c>
+      <c r="D24" s="16">
+        <v>2</v>
+      </c>
+      <c r="E24" s="19">
+        <v>0</v>
+      </c>
+      <c r="F24" s="21">
+        <v>0</v>
+      </c>
+      <c r="G24" s="19">
+        <v>0</v>
+      </c>
+      <c r="H24" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25">
+        <v>50</v>
+      </c>
+      <c r="C25" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D25" s="16">
+        <v>3</v>
+      </c>
+      <c r="E25" s="19">
+        <v>0</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0</v>
+      </c>
+      <c r="G25" s="19">
+        <v>0</v>
+      </c>
+      <c r="H25" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26">
+        <v>51</v>
+      </c>
+      <c r="C26" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D26" s="16">
+        <v>3</v>
+      </c>
+      <c r="E26" s="19">
+        <v>0</v>
+      </c>
+      <c r="F26" s="21">
+        <v>0</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0</v>
+      </c>
+      <c r="H26" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27">
+        <v>52</v>
+      </c>
+      <c r="C27" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D27" s="16">
+        <v>3</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0</v>
+      </c>
+      <c r="F27" s="21">
+        <v>0</v>
+      </c>
+      <c r="G27" s="19">
+        <v>0</v>
+      </c>
+      <c r="H27" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28">
+        <v>53</v>
+      </c>
+      <c r="C28" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D28" s="16">
+        <v>3</v>
+      </c>
+      <c r="E28" s="19">
+        <v>0</v>
+      </c>
+      <c r="F28" s="21">
+        <v>0</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0</v>
+      </c>
+      <c r="H28" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29">
+        <v>54</v>
+      </c>
+      <c r="C29" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D29" s="16">
+        <v>3</v>
+      </c>
+      <c r="E29" s="19">
+        <v>0</v>
+      </c>
+      <c r="F29" s="21">
+        <v>0</v>
+      </c>
+      <c r="G29" s="19">
+        <v>0</v>
+      </c>
+      <c r="H29" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="C30" s="23">
+        <v>2</v>
+      </c>
+      <c r="D30" s="16">
+        <v>2</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0</v>
+      </c>
+      <c r="F30" s="21">
+        <v>0</v>
+      </c>
+      <c r="G30" s="19">
+        <v>0</v>
+      </c>
+      <c r="H30" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="C31" s="23">
+        <v>2</v>
+      </c>
+      <c r="D31" s="16">
+        <v>2</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0</v>
+      </c>
+      <c r="F31" s="21">
+        <v>0</v>
+      </c>
+      <c r="G31" s="19">
+        <v>0</v>
+      </c>
+      <c r="H31" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="C32" s="23">
+        <v>2</v>
+      </c>
+      <c r="D32" s="16">
+        <v>2</v>
+      </c>
+      <c r="E32" s="19">
+        <v>0</v>
+      </c>
+      <c r="F32" s="21">
+        <v>0</v>
+      </c>
+      <c r="G32" s="19">
+        <v>0</v>
+      </c>
+      <c r="H32" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="C33" s="23">
+        <v>2</v>
+      </c>
+      <c r="D33" s="16">
+        <v>2</v>
+      </c>
+      <c r="E33" s="19">
+        <v>0</v>
+      </c>
+      <c r="F33" s="21">
+        <v>0</v>
+      </c>
+      <c r="G33" s="19">
+        <v>0</v>
+      </c>
+      <c r="H33" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34">
+        <v>59</v>
+      </c>
+      <c r="C34" s="23">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D34" s="16">
+        <v>4</v>
+      </c>
+      <c r="E34" s="19">
+        <v>0</v>
+      </c>
+      <c r="F34" s="21">
+        <v>0</v>
+      </c>
+      <c r="G34" s="19">
+        <v>0</v>
+      </c>
+      <c r="H34" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35">
+        <v>60</v>
+      </c>
+      <c r="C35" s="23">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D35" s="16">
+        <v>4</v>
+      </c>
+      <c r="E35" s="19">
+        <v>0</v>
+      </c>
+      <c r="F35" s="21">
+        <v>0</v>
+      </c>
+      <c r="G35" s="19">
+        <v>0</v>
+      </c>
+      <c r="H35" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36">
+        <v>61</v>
+      </c>
+      <c r="C36" s="23">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="16">
+        <v>4</v>
+      </c>
+      <c r="E36" s="19">
+        <v>0</v>
+      </c>
+      <c r="F36" s="21">
+        <v>0</v>
+      </c>
+      <c r="G36" s="19">
+        <v>0</v>
+      </c>
+      <c r="H36" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="C37" s="23">
+        <v>1</v>
+      </c>
+      <c r="D37" s="16">
+        <v>1</v>
+      </c>
+      <c r="E37" s="19">
+        <v>0</v>
+      </c>
+      <c r="F37" s="21">
+        <v>0</v>
+      </c>
+      <c r="G37" s="19">
+        <v>0</v>
+      </c>
+      <c r="H37" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="C38" s="23">
+        <v>1</v>
+      </c>
+      <c r="D38" s="16">
+        <v>1</v>
+      </c>
+      <c r="E38" s="19">
+        <v>0</v>
+      </c>
+      <c r="F38" s="21">
+        <v>0</v>
+      </c>
+      <c r="G38" s="19">
+        <v>0</v>
+      </c>
+      <c r="H38" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="23">
+        <v>1</v>
+      </c>
+      <c r="D39" s="16">
+        <v>1</v>
+      </c>
+      <c r="E39" s="19">
+        <v>0</v>
+      </c>
+      <c r="F39" s="21">
+        <v>0</v>
+      </c>
+      <c r="G39" s="19">
+        <v>0</v>
+      </c>
+      <c r="H39" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="23">
+        <v>4</v>
+      </c>
+      <c r="D40" s="16">
+        <v>1</v>
+      </c>
+      <c r="E40" s="19">
+        <v>1</v>
+      </c>
+      <c r="F40" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="23">
+        <v>4</v>
+      </c>
+      <c r="D41" s="16">
+        <v>1</v>
+      </c>
+      <c r="E41" s="19">
+        <v>1</v>
+      </c>
+      <c r="F41" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="23">
+        <v>4</v>
+      </c>
+      <c r="D42" s="16">
+        <v>2</v>
+      </c>
+      <c r="E42" s="19">
+        <v>1</v>
+      </c>
+      <c r="F42" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
         <v>65</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="C43" s="23">
+        <v>11</v>
+      </c>
+      <c r="D43" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>66</v>
       </c>
-      <c r="C43">
+      <c r="C44" s="23">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>67</v>
       </c>
-      <c r="C44">
+      <c r="C45" s="23">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C45">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="C46" s="23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C46">
+      <c r="C47" s="23">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C47">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48">
+      <c r="C48" s="23">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49">
+        <v>101</v>
+      </c>
+      <c r="C49" s="23">
         <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50">
+        <v>102</v>
+      </c>
+      <c r="C50" s="23">
         <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
         <v>100</v>
       </c>
-      <c r="B51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51">
+      <c r="C51" s="23">
         <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52">
+        <v>109</v>
+      </c>
+      <c r="C52" s="23">
         <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53">
+        <v>110</v>
+      </c>
+      <c r="C53" s="23">
         <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54">
+        <v>111</v>
+      </c>
+      <c r="C54" s="23">
         <v>14</v>
       </c>
     </row>

--- a/data/typenames.xlsx
+++ b/data/typenames.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="11760"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="18195" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -558,16 +558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -582,8 +573,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -890,20 +890,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.42578125" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11" style="23" customWidth="1"/>
-    <col min="4" max="4" width="18" style="16" customWidth="1"/>
-    <col min="5" max="5" width="15" style="19" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="21" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="18" customWidth="1"/>
     <col min="9" max="9" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -914,27 +914,33 @@
       <c r="B1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="22" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
+      <c r="G2" s="17">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -943,16 +949,22 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="20">
         <v>1</v>
       </c>
       <c r="D3" s="16">
         <v>1</v>
       </c>
-      <c r="E3" s="19">
-        <v>0</v>
-      </c>
-      <c r="F3" s="21">
+      <c r="E3" s="17">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
         <v>0</v>
       </c>
       <c r="I3" t="s">
@@ -966,16 +978,22 @@
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="20">
         <v>1</v>
       </c>
       <c r="D4" s="16">
         <v>1</v>
       </c>
-      <c r="E4" s="19">
-        <v>0</v>
-      </c>
-      <c r="F4" s="21">
+      <c r="E4" s="17">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
         <v>0</v>
       </c>
       <c r="I4" t="s">
@@ -989,16 +1007,22 @@
       <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="20">
         <v>1</v>
       </c>
       <c r="D5" s="16">
         <v>1</v>
       </c>
-      <c r="E5" s="19">
-        <v>0</v>
-      </c>
-      <c r="F5" s="21">
+      <c r="E5" s="17">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18">
         <v>0</v>
       </c>
       <c r="I5" s="13" t="s">
@@ -1012,16 +1036,22 @@
       <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="20">
         <v>4</v>
       </c>
       <c r="D6" s="16">
         <v>1</v>
       </c>
-      <c r="E6" s="19">
-        <v>1</v>
-      </c>
-      <c r="F6" s="21">
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18">
         <v>0</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -1035,16 +1065,22 @@
       <c r="B7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="20">
         <v>4</v>
       </c>
       <c r="D7" s="16">
         <v>1</v>
       </c>
-      <c r="E7" s="19">
-        <v>1</v>
-      </c>
-      <c r="F7" s="21">
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18">
         <v>0</v>
       </c>
       <c r="I7" s="14" t="s">
@@ -1058,16 +1094,22 @@
       <c r="B8" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="20">
         <v>4</v>
       </c>
       <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="19">
-        <v>1</v>
-      </c>
-      <c r="F8" s="21">
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18">
         <v>0</v>
       </c>
       <c r="I8" s="12" t="s">
@@ -1081,16 +1123,22 @@
       <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="20">
         <v>2</v>
       </c>
       <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E9" s="19">
-        <v>0</v>
-      </c>
-      <c r="F9" s="21">
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18">
         <v>0</v>
       </c>
       <c r="I9" s="13" t="s">
@@ -1104,16 +1152,22 @@
       <c r="B10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="20">
         <v>2</v>
       </c>
       <c r="D10" s="16">
         <v>2</v>
       </c>
-      <c r="E10" s="19">
-        <v>0</v>
-      </c>
-      <c r="F10" s="21">
+      <c r="E10" s="17">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="H10" s="18">
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -1127,16 +1181,22 @@
       <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="20">
         <v>2</v>
       </c>
       <c r="D11" s="16">
         <v>2</v>
       </c>
-      <c r="E11" s="19">
-        <v>0</v>
-      </c>
-      <c r="F11" s="21">
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18">
         <v>0</v>
       </c>
       <c r="I11" s="13" t="s">
@@ -1150,16 +1210,22 @@
       <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="20">
         <v>2</v>
       </c>
       <c r="D12" s="16">
         <v>2</v>
       </c>
-      <c r="E12" s="19">
-        <v>0</v>
-      </c>
-      <c r="F12" s="21">
+      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
         <v>0</v>
       </c>
       <c r="I12" s="12" t="s">
@@ -1173,22 +1239,22 @@
       <c r="B13" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="20">
         <v>2</v>
       </c>
       <c r="D13" s="16">
         <v>2</v>
       </c>
-      <c r="E13" s="19">
-        <v>0</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0</v>
-      </c>
-      <c r="G13" s="19">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21">
+      <c r="E13" s="17">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
         <v>0</v>
       </c>
       <c r="I13" s="12" t="s">
@@ -1202,22 +1268,22 @@
       <c r="B14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="20">
         <v>2</v>
       </c>
       <c r="D14" s="16">
         <v>2</v>
       </c>
-      <c r="E14" s="19">
-        <v>0</v>
-      </c>
-      <c r="F14" s="21">
-        <v>0</v>
-      </c>
-      <c r="G14" s="19">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21">
+      <c r="E14" s="17">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18">
         <v>0</v>
       </c>
       <c r="I14" s="12" t="s">
@@ -1231,22 +1297,22 @@
       <c r="B15" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="20">
         <v>2</v>
       </c>
       <c r="D15" s="16">
         <v>2</v>
       </c>
-      <c r="E15" s="19">
-        <v>0</v>
-      </c>
-      <c r="F15" s="21">
-        <v>0</v>
-      </c>
-      <c r="G15" s="19">
-        <v>0</v>
-      </c>
-      <c r="H15" s="21">
+      <c r="E15" s="17">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
         <v>0</v>
       </c>
       <c r="I15" s="14" t="s">
@@ -1260,22 +1326,22 @@
       <c r="B16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="20">
         <v>6</v>
       </c>
       <c r="D16" s="16">
         <v>2</v>
       </c>
-      <c r="E16" s="19">
-        <v>1</v>
-      </c>
-      <c r="F16" s="21">
-        <v>0</v>
-      </c>
-      <c r="G16" s="19">
-        <v>0</v>
-      </c>
-      <c r="H16" s="21">
+      <c r="E16" s="17">
+        <v>1</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
         <v>0</v>
       </c>
       <c r="I16" s="15" t="s">
@@ -1289,22 +1355,22 @@
       <c r="B17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="20">
         <v>6</v>
       </c>
       <c r="D17" s="16">
         <v>2</v>
       </c>
-      <c r="E17" s="19">
-        <v>1</v>
-      </c>
-      <c r="F17" s="21">
-        <v>0</v>
-      </c>
-      <c r="G17" s="19">
-        <v>0</v>
-      </c>
-      <c r="H17" s="21">
+      <c r="E17" s="17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1315,22 +1381,22 @@
       <c r="B18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="20">
         <v>7</v>
       </c>
       <c r="D18" s="16">
         <v>2</v>
       </c>
-      <c r="E18" s="19">
-        <v>1</v>
-      </c>
-      <c r="F18" s="21">
-        <v>0</v>
-      </c>
-      <c r="G18" s="19">
-        <v>0</v>
-      </c>
-      <c r="H18" s="21">
+      <c r="E18" s="17">
+        <v>1</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="17">
+        <v>0</v>
+      </c>
+      <c r="H18" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1341,22 +1407,22 @@
       <c r="B19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="20">
         <v>8</v>
       </c>
       <c r="D19" s="16">
         <v>3</v>
       </c>
-      <c r="E19" s="19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="21">
-        <v>0</v>
-      </c>
-      <c r="G19" s="19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="21">
+      <c r="E19" s="17">
+        <v>1</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0</v>
+      </c>
+      <c r="G19" s="17">
+        <v>0</v>
+      </c>
+      <c r="H19" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1367,22 +1433,22 @@
       <c r="B20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="20">
         <v>9</v>
       </c>
       <c r="D20" s="16">
         <v>3</v>
       </c>
-      <c r="E20" s="19">
-        <v>1</v>
-      </c>
-      <c r="F20" s="21">
-        <v>0</v>
-      </c>
-      <c r="G20" s="19">
-        <v>0</v>
-      </c>
-      <c r="H20" s="21">
+      <c r="E20" s="17">
+        <v>1</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0</v>
+      </c>
+      <c r="G20" s="17">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1393,22 +1459,22 @@
       <c r="B21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="20">
         <v>2</v>
       </c>
       <c r="D21" s="16">
         <v>2</v>
       </c>
-      <c r="E21" s="19">
-        <v>0</v>
-      </c>
-      <c r="F21" s="21">
-        <v>0</v>
-      </c>
-      <c r="G21" s="19">
-        <v>0</v>
-      </c>
-      <c r="H21" s="21">
+      <c r="E21" s="17">
+        <v>0</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0</v>
+      </c>
+      <c r="G21" s="17">
+        <v>0</v>
+      </c>
+      <c r="H21" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1419,22 +1485,22 @@
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="20">
         <v>1</v>
       </c>
       <c r="D22" s="16">
         <v>1</v>
       </c>
-      <c r="E22" s="19">
-        <v>0</v>
-      </c>
-      <c r="F22" s="21">
-        <v>0</v>
-      </c>
-      <c r="G22" s="19">
-        <v>0</v>
-      </c>
-      <c r="H22" s="21">
+      <c r="E22" s="17">
+        <v>0</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0</v>
+      </c>
+      <c r="G22" s="17">
+        <v>0</v>
+      </c>
+      <c r="H22" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1445,22 +1511,22 @@
       <c r="B23" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="20">
         <v>1</v>
       </c>
       <c r="D23" s="16">
         <v>1</v>
       </c>
-      <c r="E23" s="19">
-        <v>0</v>
-      </c>
-      <c r="F23" s="21">
-        <v>0</v>
-      </c>
-      <c r="G23" s="19">
-        <v>0</v>
-      </c>
-      <c r="H23" s="21">
+      <c r="E23" s="17">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18">
+        <v>0</v>
+      </c>
+      <c r="G23" s="17">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1471,22 +1537,22 @@
       <c r="B24" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="20">
         <v>2</v>
       </c>
       <c r="D24" s="16">
         <v>2</v>
       </c>
-      <c r="E24" s="19">
-        <v>0</v>
-      </c>
-      <c r="F24" s="21">
-        <v>0</v>
-      </c>
-      <c r="G24" s="19">
-        <v>0</v>
-      </c>
-      <c r="H24" s="21">
+      <c r="E24" s="17">
+        <v>0</v>
+      </c>
+      <c r="F24" s="18">
+        <v>0</v>
+      </c>
+      <c r="G24" s="17">
+        <v>0</v>
+      </c>
+      <c r="H24" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1497,22 +1563,22 @@
       <c r="B25" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="20">
         <v>3</v>
       </c>
       <c r="D25" s="16">
         <v>3</v>
       </c>
-      <c r="E25" s="19">
-        <v>0</v>
-      </c>
-      <c r="F25" s="21">
-        <v>0</v>
-      </c>
-      <c r="G25" s="19">
-        <v>0</v>
-      </c>
-      <c r="H25" s="21">
+      <c r="E25" s="17">
+        <v>0</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0</v>
+      </c>
+      <c r="G25" s="17">
+        <v>0</v>
+      </c>
+      <c r="H25" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1523,22 +1589,22 @@
       <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="20">
         <v>3</v>
       </c>
       <c r="D26" s="16">
         <v>3</v>
       </c>
-      <c r="E26" s="19">
-        <v>0</v>
-      </c>
-      <c r="F26" s="21">
-        <v>0</v>
-      </c>
-      <c r="G26" s="19">
-        <v>0</v>
-      </c>
-      <c r="H26" s="21">
+      <c r="E26" s="17">
+        <v>0</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0</v>
+      </c>
+      <c r="G26" s="17">
+        <v>0</v>
+      </c>
+      <c r="H26" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1549,22 +1615,22 @@
       <c r="B27" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="20">
         <v>3</v>
       </c>
       <c r="D27" s="16">
         <v>3</v>
       </c>
-      <c r="E27" s="19">
-        <v>0</v>
-      </c>
-      <c r="F27" s="21">
-        <v>0</v>
-      </c>
-      <c r="G27" s="19">
-        <v>0</v>
-      </c>
-      <c r="H27" s="21">
+      <c r="E27" s="17">
+        <v>0</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0</v>
+      </c>
+      <c r="G27" s="17">
+        <v>0</v>
+      </c>
+      <c r="H27" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1575,22 +1641,22 @@
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="20">
         <v>3</v>
       </c>
       <c r="D28" s="16">
         <v>3</v>
       </c>
-      <c r="E28" s="19">
-        <v>0</v>
-      </c>
-      <c r="F28" s="21">
-        <v>0</v>
-      </c>
-      <c r="G28" s="19">
-        <v>0</v>
-      </c>
-      <c r="H28" s="21">
+      <c r="E28" s="17">
+        <v>0</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0</v>
+      </c>
+      <c r="G28" s="17">
+        <v>0</v>
+      </c>
+      <c r="H28" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1601,22 +1667,22 @@
       <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="20">
         <v>3</v>
       </c>
       <c r="D29" s="16">
         <v>3</v>
       </c>
-      <c r="E29" s="19">
-        <v>0</v>
-      </c>
-      <c r="F29" s="21">
-        <v>0</v>
-      </c>
-      <c r="G29" s="19">
-        <v>0</v>
-      </c>
-      <c r="H29" s="21">
+      <c r="E29" s="17">
+        <v>0</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0</v>
+      </c>
+      <c r="G29" s="17">
+        <v>0</v>
+      </c>
+      <c r="H29" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1627,22 +1693,22 @@
       <c r="B30" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="20">
         <v>2</v>
       </c>
       <c r="D30" s="16">
         <v>2</v>
       </c>
-      <c r="E30" s="19">
-        <v>0</v>
-      </c>
-      <c r="F30" s="21">
-        <v>0</v>
-      </c>
-      <c r="G30" s="19">
-        <v>0</v>
-      </c>
-      <c r="H30" s="21">
+      <c r="E30" s="17">
+        <v>0</v>
+      </c>
+      <c r="F30" s="18">
+        <v>0</v>
+      </c>
+      <c r="G30" s="17">
+        <v>0</v>
+      </c>
+      <c r="H30" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1653,22 +1719,22 @@
       <c r="B31" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="20">
         <v>2</v>
       </c>
       <c r="D31" s="16">
         <v>2</v>
       </c>
-      <c r="E31" s="19">
-        <v>0</v>
-      </c>
-      <c r="F31" s="21">
-        <v>0</v>
-      </c>
-      <c r="G31" s="19">
-        <v>0</v>
-      </c>
-      <c r="H31" s="21">
+      <c r="E31" s="17">
+        <v>0</v>
+      </c>
+      <c r="F31" s="18">
+        <v>0</v>
+      </c>
+      <c r="G31" s="17">
+        <v>0</v>
+      </c>
+      <c r="H31" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1679,22 +1745,22 @@
       <c r="B32" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="20">
         <v>2</v>
       </c>
       <c r="D32" s="16">
         <v>2</v>
       </c>
-      <c r="E32" s="19">
-        <v>0</v>
-      </c>
-      <c r="F32" s="21">
-        <v>0</v>
-      </c>
-      <c r="G32" s="19">
-        <v>0</v>
-      </c>
-      <c r="H32" s="21">
+      <c r="E32" s="17">
+        <v>0</v>
+      </c>
+      <c r="F32" s="18">
+        <v>0</v>
+      </c>
+      <c r="G32" s="17">
+        <v>0</v>
+      </c>
+      <c r="H32" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1705,22 +1771,22 @@
       <c r="B33" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="20">
         <v>2</v>
       </c>
       <c r="D33" s="16">
         <v>2</v>
       </c>
-      <c r="E33" s="19">
-        <v>0</v>
-      </c>
-      <c r="F33" s="21">
-        <v>0</v>
-      </c>
-      <c r="G33" s="19">
-        <v>0</v>
-      </c>
-      <c r="H33" s="21">
+      <c r="E33" s="17">
+        <v>0</v>
+      </c>
+      <c r="F33" s="18">
+        <v>0</v>
+      </c>
+      <c r="G33" s="17">
+        <v>0</v>
+      </c>
+      <c r="H33" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1731,22 +1797,22 @@
       <c r="B34" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="20">
         <v>15</v>
       </c>
       <c r="D34" s="16">
         <v>4</v>
       </c>
-      <c r="E34" s="19">
-        <v>0</v>
-      </c>
-      <c r="F34" s="21">
-        <v>0</v>
-      </c>
-      <c r="G34" s="19">
-        <v>0</v>
-      </c>
-      <c r="H34" s="21">
+      <c r="E34" s="17">
+        <v>0</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0</v>
+      </c>
+      <c r="G34" s="17">
+        <v>0</v>
+      </c>
+      <c r="H34" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1757,22 +1823,22 @@
       <c r="B35" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="20">
         <v>15</v>
       </c>
       <c r="D35" s="16">
         <v>4</v>
       </c>
-      <c r="E35" s="19">
-        <v>0</v>
-      </c>
-      <c r="F35" s="21">
-        <v>0</v>
-      </c>
-      <c r="G35" s="19">
-        <v>0</v>
-      </c>
-      <c r="H35" s="21">
+      <c r="E35" s="17">
+        <v>0</v>
+      </c>
+      <c r="F35" s="18">
+        <v>0</v>
+      </c>
+      <c r="G35" s="17">
+        <v>0</v>
+      </c>
+      <c r="H35" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1783,22 +1849,22 @@
       <c r="B36" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="20">
         <v>15</v>
       </c>
       <c r="D36" s="16">
         <v>4</v>
       </c>
-      <c r="E36" s="19">
-        <v>0</v>
-      </c>
-      <c r="F36" s="21">
-        <v>0</v>
-      </c>
-      <c r="G36" s="19">
-        <v>0</v>
-      </c>
-      <c r="H36" s="21">
+      <c r="E36" s="17">
+        <v>0</v>
+      </c>
+      <c r="F36" s="18">
+        <v>0</v>
+      </c>
+      <c r="G36" s="17">
+        <v>0</v>
+      </c>
+      <c r="H36" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1809,22 +1875,22 @@
       <c r="B37" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="20">
         <v>1</v>
       </c>
       <c r="D37" s="16">
         <v>1</v>
       </c>
-      <c r="E37" s="19">
-        <v>0</v>
-      </c>
-      <c r="F37" s="21">
-        <v>0</v>
-      </c>
-      <c r="G37" s="19">
-        <v>0</v>
-      </c>
-      <c r="H37" s="21">
+      <c r="E37" s="17">
+        <v>0</v>
+      </c>
+      <c r="F37" s="18">
+        <v>0</v>
+      </c>
+      <c r="G37" s="17">
+        <v>0</v>
+      </c>
+      <c r="H37" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1835,22 +1901,22 @@
       <c r="B38" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="20">
         <v>1</v>
       </c>
       <c r="D38" s="16">
         <v>1</v>
       </c>
-      <c r="E38" s="19">
-        <v>0</v>
-      </c>
-      <c r="F38" s="21">
-        <v>0</v>
-      </c>
-      <c r="G38" s="19">
-        <v>0</v>
-      </c>
-      <c r="H38" s="21">
+      <c r="E38" s="17">
+        <v>0</v>
+      </c>
+      <c r="F38" s="18">
+        <v>0</v>
+      </c>
+      <c r="G38" s="17">
+        <v>0</v>
+      </c>
+      <c r="H38" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1861,22 +1927,22 @@
       <c r="B39" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="20">
         <v>1</v>
       </c>
       <c r="D39" s="16">
         <v>1</v>
       </c>
-      <c r="E39" s="19">
-        <v>0</v>
-      </c>
-      <c r="F39" s="21">
-        <v>0</v>
-      </c>
-      <c r="G39" s="19">
-        <v>0</v>
-      </c>
-      <c r="H39" s="21">
+      <c r="E39" s="17">
+        <v>0</v>
+      </c>
+      <c r="F39" s="18">
+        <v>0</v>
+      </c>
+      <c r="G39" s="17">
+        <v>0</v>
+      </c>
+      <c r="H39" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1887,16 +1953,22 @@
       <c r="B40" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="20">
         <v>4</v>
       </c>
       <c r="D40" s="16">
         <v>1</v>
       </c>
-      <c r="E40" s="19">
-        <v>1</v>
-      </c>
-      <c r="F40" s="21">
+      <c r="E40" s="17">
+        <v>1</v>
+      </c>
+      <c r="F40" s="18">
+        <v>0</v>
+      </c>
+      <c r="G40" s="17">
+        <v>0</v>
+      </c>
+      <c r="H40" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1907,16 +1979,22 @@
       <c r="B41" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="20">
         <v>4</v>
       </c>
       <c r="D41" s="16">
         <v>1</v>
       </c>
-      <c r="E41" s="19">
-        <v>1</v>
-      </c>
-      <c r="F41" s="21">
+      <c r="E41" s="17">
+        <v>1</v>
+      </c>
+      <c r="F41" s="18">
+        <v>0</v>
+      </c>
+      <c r="G41" s="17">
+        <v>0</v>
+      </c>
+      <c r="H41" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1927,16 +2005,22 @@
       <c r="B42" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="20">
         <v>4</v>
       </c>
       <c r="D42" s="16">
-        <v>2</v>
-      </c>
-      <c r="E42" s="19">
-        <v>1</v>
-      </c>
-      <c r="F42" s="21">
+        <v>1</v>
+      </c>
+      <c r="E42" s="17">
+        <v>1</v>
+      </c>
+      <c r="F42" s="18">
+        <v>0</v>
+      </c>
+      <c r="G42" s="17">
+        <v>0</v>
+      </c>
+      <c r="H42" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1947,11 +2031,23 @@
       <c r="B43" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="20">
         <v>11</v>
       </c>
       <c r="D43" s="16">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E43" s="17">
+        <v>0</v>
+      </c>
+      <c r="F43" s="18">
+        <v>0</v>
+      </c>
+      <c r="G43" s="17">
+        <v>1</v>
+      </c>
+      <c r="H43" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1961,8 +2057,23 @@
       <c r="B44" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="20">
         <v>11</v>
+      </c>
+      <c r="D44" s="16">
+        <v>1</v>
+      </c>
+      <c r="E44" s="17">
+        <v>0</v>
+      </c>
+      <c r="F44" s="18">
+        <v>0</v>
+      </c>
+      <c r="G44" s="17">
+        <v>1</v>
+      </c>
+      <c r="H44" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1972,8 +2083,23 @@
       <c r="B45" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="20">
         <v>11</v>
+      </c>
+      <c r="D45" s="16">
+        <v>1</v>
+      </c>
+      <c r="E45" s="17">
+        <v>0</v>
+      </c>
+      <c r="F45" s="18">
+        <v>0</v>
+      </c>
+      <c r="G45" s="17">
+        <v>1</v>
+      </c>
+      <c r="H45" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1983,8 +2109,23 @@
       <c r="B46" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="20">
         <v>12</v>
+      </c>
+      <c r="D46" s="16">
+        <v>1</v>
+      </c>
+      <c r="E46" s="17">
+        <v>0</v>
+      </c>
+      <c r="F46" s="18">
+        <v>0</v>
+      </c>
+      <c r="G46" s="17">
+        <v>0</v>
+      </c>
+      <c r="H46" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1994,8 +2135,23 @@
       <c r="B47" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="20">
         <v>12</v>
+      </c>
+      <c r="D47" s="16">
+        <v>1</v>
+      </c>
+      <c r="E47" s="17">
+        <v>0</v>
+      </c>
+      <c r="F47" s="18">
+        <v>0</v>
+      </c>
+      <c r="G47" s="17">
+        <v>0</v>
+      </c>
+      <c r="H47" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2005,80 +2161,185 @@
       <c r="B48" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="20">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="16">
+        <v>1</v>
+      </c>
+      <c r="E48" s="17">
+        <v>0</v>
+      </c>
+      <c r="F48" s="18">
+        <v>0</v>
+      </c>
+      <c r="G48" s="17">
+        <v>0</v>
+      </c>
+      <c r="H48" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B49" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="20">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="16">
+        <v>1</v>
+      </c>
+      <c r="E49" s="17">
+        <v>0</v>
+      </c>
+      <c r="F49" s="18">
+        <v>0</v>
+      </c>
+      <c r="G49" s="17">
+        <v>1</v>
+      </c>
+      <c r="H49" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B50" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="20">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="16">
+        <v>1</v>
+      </c>
+      <c r="E50" s="17">
+        <v>0</v>
+      </c>
+      <c r="F50" s="18">
+        <v>0</v>
+      </c>
+      <c r="G50" s="17">
+        <v>1</v>
+      </c>
+      <c r="H50" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B51" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="20">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="16">
+        <v>1</v>
+      </c>
+      <c r="E51" s="17">
+        <v>0</v>
+      </c>
+      <c r="F51" s="18">
+        <v>0</v>
+      </c>
+      <c r="G51" s="17">
+        <v>1</v>
+      </c>
+      <c r="H51" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B52" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="20">
         <v>14</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="16">
+        <v>1</v>
+      </c>
+      <c r="E52" s="17">
+        <v>1</v>
+      </c>
+      <c r="F52" s="18">
+        <v>0</v>
+      </c>
+      <c r="G52" s="17">
+        <v>1</v>
+      </c>
+      <c r="H52" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B53" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="23">
+      <c r="C53" s="20">
         <v>14</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="16">
+        <v>1</v>
+      </c>
+      <c r="E53" s="17">
+        <v>1</v>
+      </c>
+      <c r="F53" s="18">
+        <v>0</v>
+      </c>
+      <c r="G53" s="17">
+        <v>1</v>
+      </c>
+      <c r="H53" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="20">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="16">
+        <v>1</v>
+      </c>
+      <c r="E54" s="17">
+        <v>1</v>
+      </c>
+      <c r="F54" s="18">
+        <v>0</v>
+      </c>
+      <c r="G54" s="17">
+        <v>1</v>
+      </c>
+      <c r="H54" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
     </row>
   </sheetData>

--- a/data/typenames.xlsx
+++ b/data/typenames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="126">
   <si>
     <t>ΤΥΠΟΙ</t>
   </si>
@@ -386,10 +386,16 @@
     <t>Fix + Εισοδος  1-φύλλο Δεξιά + Fix  + Φεγγίτης</t>
   </si>
   <si>
-    <t>FIX (ΕΙΣΟΔΟΥ) ΑΡΙΣΤΕΡΑ</t>
-  </si>
-  <si>
-    <t>FIX (ΕΙΣΟΔΟΥ) ΔΕΞΙΑ</t>
+    <t>Ελάχιστο Φάρδος</t>
+  </si>
+  <si>
+    <t>Μέγιστο Φάρδος</t>
+  </si>
+  <si>
+    <t>Μέγιστο Ύψος</t>
+  </si>
+  <si>
+    <t>Ελάχιστο Ύψος</t>
   </si>
 </sst>
 </file>
@@ -888,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,12 +908,14 @@
     <col min="4" max="4" width="11.28515625" style="16" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="17" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="18" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="17" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="18" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -927,13 +935,19 @@
         <v>117</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="G2" s="17">
         <v>0</v>
@@ -941,8 +955,14 @@
       <c r="H2" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I2" s="17">
+        <v>0</v>
+      </c>
+      <c r="J2" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -967,11 +987,17 @@
       <c r="H3" s="18">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="17">
+        <v>0</v>
+      </c>
+      <c r="J3" s="18">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -996,11 +1022,17 @@
       <c r="H4" s="18">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="17">
+        <v>0</v>
+      </c>
+      <c r="J4" s="18">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1025,11 +1057,17 @@
       <c r="H5" s="18">
         <v>0</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+      <c r="J5" s="18">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>105</v>
       </c>
@@ -1054,11 +1092,17 @@
       <c r="H6" s="18">
         <v>0</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="17">
+        <v>0</v>
+      </c>
+      <c r="J6" s="18">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>103</v>
       </c>
@@ -1083,11 +1127,17 @@
       <c r="H7" s="18">
         <v>0</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="17">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>104</v>
       </c>
@@ -1112,11 +1162,17 @@
       <c r="H8" s="18">
         <v>0</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="18">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
@@ -1141,11 +1197,17 @@
       <c r="H9" s="18">
         <v>0</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="17">
+        <v>0</v>
+      </c>
+      <c r="J9" s="18">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -1170,11 +1232,17 @@
       <c r="H10" s="18">
         <v>0</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -1199,11 +1267,17 @@
       <c r="H11" s="18">
         <v>0</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+      <c r="J11" s="18">
+        <v>0</v>
+      </c>
+      <c r="K11" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
@@ -1228,11 +1302,17 @@
       <c r="H12" s="18">
         <v>0</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1257,11 +1337,17 @@
       <c r="H13" s="18">
         <v>0</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="17">
+        <v>0</v>
+      </c>
+      <c r="J13" s="18">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1286,11 +1372,17 @@
       <c r="H14" s="18">
         <v>0</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="17">
+        <v>0</v>
+      </c>
+      <c r="J14" s="18">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -1315,11 +1407,17 @@
       <c r="H15" s="18">
         <v>0</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="17">
+        <v>0</v>
+      </c>
+      <c r="J15" s="18">
+        <v>0</v>
+      </c>
+      <c r="K15" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -1344,11 +1442,17 @@
       <c r="H16" s="18">
         <v>0</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="17">
+        <v>0</v>
+      </c>
+      <c r="J16" s="18">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>77</v>
       </c>
@@ -1373,8 +1477,14 @@
       <c r="H17" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>76</v>
       </c>
@@ -1399,8 +1509,14 @@
       <c r="H18" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="17">
+        <v>0</v>
+      </c>
+      <c r="J18" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>75</v>
       </c>
@@ -1425,8 +1541,14 @@
       <c r="H19" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="17">
+        <v>0</v>
+      </c>
+      <c r="J19" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>80</v>
       </c>
@@ -1451,8 +1573,14 @@
       <c r="H20" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I20" s="17">
+        <v>0</v>
+      </c>
+      <c r="J20" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>11</v>
       </c>
@@ -1477,8 +1605,14 @@
       <c r="H21" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I21" s="17">
+        <v>0</v>
+      </c>
+      <c r="J21" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>12</v>
       </c>
@@ -1503,8 +1637,14 @@
       <c r="H22" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I22" s="17">
+        <v>0</v>
+      </c>
+      <c r="J22" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>13</v>
       </c>
@@ -1529,8 +1669,14 @@
       <c r="H23" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I23" s="17">
+        <v>0</v>
+      </c>
+      <c r="J23" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>14</v>
       </c>
@@ -1555,8 +1701,14 @@
       <c r="H24" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I24" s="17">
+        <v>0</v>
+      </c>
+      <c r="J24" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>15</v>
       </c>
@@ -1581,8 +1733,14 @@
       <c r="H25" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I25" s="17">
+        <v>0</v>
+      </c>
+      <c r="J25" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>16</v>
       </c>
@@ -1607,8 +1765,14 @@
       <c r="H26" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I26" s="17">
+        <v>0</v>
+      </c>
+      <c r="J26" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>17</v>
       </c>
@@ -1633,8 +1797,14 @@
       <c r="H27" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I27" s="17">
+        <v>0</v>
+      </c>
+      <c r="J27" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>18</v>
       </c>
@@ -1659,8 +1829,14 @@
       <c r="H28" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I28" s="17">
+        <v>0</v>
+      </c>
+      <c r="J28" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>19</v>
       </c>
@@ -1685,8 +1861,14 @@
       <c r="H29" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I29" s="17">
+        <v>0</v>
+      </c>
+      <c r="J29" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>20</v>
       </c>
@@ -1711,8 +1893,14 @@
       <c r="H30" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I30" s="17">
+        <v>0</v>
+      </c>
+      <c r="J30" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>21</v>
       </c>
@@ -1737,8 +1925,14 @@
       <c r="H31" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I31" s="17">
+        <v>0</v>
+      </c>
+      <c r="J31" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
@@ -1763,8 +1957,14 @@
       <c r="H32" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I32" s="17">
+        <v>0</v>
+      </c>
+      <c r="J32" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>23</v>
       </c>
@@ -1789,8 +1989,14 @@
       <c r="H33" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I33" s="17">
+        <v>0</v>
+      </c>
+      <c r="J33" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>24</v>
       </c>
@@ -1815,8 +2021,14 @@
       <c r="H34" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I34" s="17">
+        <v>0</v>
+      </c>
+      <c r="J34" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>25</v>
       </c>
@@ -1841,8 +2053,14 @@
       <c r="H35" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I35" s="17">
+        <v>0</v>
+      </c>
+      <c r="J35" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>26</v>
       </c>
@@ -1867,8 +2085,14 @@
       <c r="H36" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="17">
+        <v>0</v>
+      </c>
+      <c r="J36" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>27</v>
       </c>
@@ -1893,8 +2117,14 @@
       <c r="H37" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="17">
+        <v>0</v>
+      </c>
+      <c r="J37" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>28</v>
       </c>
@@ -1919,8 +2149,14 @@
       <c r="H38" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="17">
+        <v>0</v>
+      </c>
+      <c r="J38" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>29</v>
       </c>
@@ -1945,8 +2181,14 @@
       <c r="H39" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="17">
+        <v>0</v>
+      </c>
+      <c r="J39" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>114</v>
       </c>
@@ -1971,8 +2213,14 @@
       <c r="H40" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="17">
+        <v>0</v>
+      </c>
+      <c r="J40" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>118</v>
       </c>
@@ -1997,8 +2245,14 @@
       <c r="H41" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="17">
+        <v>0</v>
+      </c>
+      <c r="J41" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>30</v>
       </c>
@@ -2023,8 +2277,14 @@
       <c r="H42" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="17">
+        <v>0</v>
+      </c>
+      <c r="J42" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>31</v>
       </c>
@@ -2044,13 +2304,19 @@
         <v>0</v>
       </c>
       <c r="G43" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="17">
+        <v>0</v>
+      </c>
+      <c r="J43" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>32</v>
       </c>
@@ -2070,13 +2336,19 @@
         <v>0</v>
       </c>
       <c r="G44" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="17">
+        <v>0</v>
+      </c>
+      <c r="J44" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>33</v>
       </c>
@@ -2096,13 +2368,19 @@
         <v>0</v>
       </c>
       <c r="G45" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="17">
+        <v>0</v>
+      </c>
+      <c r="J45" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>34</v>
       </c>
@@ -2125,10 +2403,16 @@
         <v>0</v>
       </c>
       <c r="H46" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I46" s="17">
+        <v>0</v>
+      </c>
+      <c r="J46" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>35</v>
       </c>
@@ -2151,10 +2435,16 @@
         <v>0</v>
       </c>
       <c r="H47" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I47" s="17">
+        <v>0</v>
+      </c>
+      <c r="J47" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>36</v>
       </c>
@@ -2177,10 +2467,16 @@
         <v>0</v>
       </c>
       <c r="H48" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I48" s="17">
+        <v>0</v>
+      </c>
+      <c r="J48" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>97</v>
       </c>
@@ -2200,13 +2496,19 @@
         <v>0</v>
       </c>
       <c r="G49" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I49" s="17">
+        <v>0</v>
+      </c>
+      <c r="J49" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>98</v>
       </c>
@@ -2226,13 +2528,19 @@
         <v>0</v>
       </c>
       <c r="G50" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I50" s="17">
+        <v>0</v>
+      </c>
+      <c r="J50" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>99</v>
       </c>
@@ -2252,13 +2560,19 @@
         <v>0</v>
       </c>
       <c r="G51" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I51" s="17">
+        <v>0</v>
+      </c>
+      <c r="J51" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>121</v>
       </c>
@@ -2278,13 +2592,19 @@
         <v>0</v>
       </c>
       <c r="G52" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I52" s="17">
+        <v>0</v>
+      </c>
+      <c r="J52" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>119</v>
       </c>
@@ -2304,13 +2624,19 @@
         <v>0</v>
       </c>
       <c r="G53" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I53" s="17">
+        <v>0</v>
+      </c>
+      <c r="J53" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>120</v>
       </c>
@@ -2330,16 +2656,22 @@
         <v>0</v>
       </c>
       <c r="G54" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I54" s="17">
+        <v>0</v>
+      </c>
+      <c r="J54" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
     </row>
   </sheetData>
